--- a/suivi panne IDR-Colas 180424.xlsx
+++ b/suivi panne IDR-Colas 180424.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelly.rasoa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inviso\19 - Clone\Replication-de-Panne-IDR-IDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46648E2B-BBE9-4BE8-A323-E6EFA99833E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7A5252-1D26-41F8-A677-0BC612596E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51B71B39-112D-4898-97A7-B3ABD93F6092}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{51B71B39-112D-4898-97A7-B3ABD93F6092}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -966,192 +966,84 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <family val="2"/>
       </font>
     </dxf>
@@ -1255,199 +1147,199 @@
     <dxf>
       <font>
         <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
     </dxf>
   </dxfs>
@@ -1762,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55499E9-ADD3-4891-B2E1-5CDA2D4F9238}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H29" zoomScale="202" zoomScaleNormal="202" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="202" zoomScaleNormal="202" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1795,7 +1687,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5">
         <f ca="1">TODAY()</f>
-        <v>45400</v>
+        <v>45404</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="1"/>
@@ -1864,7 +1756,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="28">
         <f ca="1">IF(I3="",$J$1-G3,I3-G3)+1</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>14</v>
@@ -1873,7 +1765,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
@@ -1910,7 +1802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
@@ -1949,7 +1841,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
@@ -1988,7 +1880,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
@@ -2053,7 +1945,7 @@
       <c r="I8" s="32"/>
       <c r="J8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>25</v>
@@ -2090,7 +1982,7 @@
       <c r="I9" s="34"/>
       <c r="J9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>28</v>
@@ -2125,7 +2017,7 @@
       <c r="I10" s="34"/>
       <c r="J10" s="28">
         <f t="shared" ref="J10:J27" ca="1" si="1">IF(I10="",$J$1-G10,I10-G10)+1</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K10" s="29" t="s">
         <v>41</v>
@@ -2160,7 +2052,7 @@
       <c r="I11" s="34"/>
       <c r="J11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K11" s="29" t="s">
         <v>41</v>
@@ -2195,7 +2087,7 @@
       <c r="I12" s="34"/>
       <c r="J12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="12" t="s">
@@ -2226,7 +2118,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K13" s="29" t="s">
         <v>86</v>
@@ -2259,7 +2151,7 @@
       <c r="I14" s="34"/>
       <c r="J14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>130</v>
@@ -2292,7 +2184,7 @@
       <c r="I15" s="34"/>
       <c r="J15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>132</v>
@@ -2358,7 +2250,7 @@
       <c r="I17" s="34"/>
       <c r="J17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>87</v>
@@ -2391,7 +2283,7 @@
       <c r="I18" s="34"/>
       <c r="J18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K18" s="29" t="s">
         <v>91</v>
@@ -2422,7 +2314,7 @@
       <c r="I19" s="34"/>
       <c r="J19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>92</v>
@@ -2455,7 +2347,7 @@
       <c r="I20" s="34"/>
       <c r="J20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K20" s="29" t="s">
         <v>93</v>
@@ -2488,7 +2380,7 @@
       <c r="I21" s="34"/>
       <c r="J21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K21" s="29" t="s">
         <v>94</v>
@@ -2523,7 +2415,7 @@
       <c r="I22" s="34"/>
       <c r="J22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K22" s="29" t="s">
         <v>138</v>
@@ -2556,7 +2448,7 @@
       <c r="I23" s="34"/>
       <c r="J23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K23" s="29" t="s">
         <v>95</v>
@@ -2589,7 +2481,7 @@
       <c r="I24" s="34"/>
       <c r="J24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="12" t="s">
@@ -2657,7 +2549,7 @@
       <c r="I26" s="34"/>
       <c r="J26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K26" s="29" t="s">
         <v>96</v>
@@ -2755,7 +2647,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11">
         <f t="shared" ref="J29:J30" ca="1" si="2">IF(I29="",$J$1-G29,I29-G29)+1</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>148</v>
@@ -2790,7 +2682,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>152</v>
@@ -2803,201 +2695,201 @@
   <autoFilter ref="A2:L27" xr:uid="{E55499E9-ADD3-4891-B2E1-5CDA2D4F9238}"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C1 D3:D8 C3:C11 F8:F11">
-    <cfRule type="expression" dxfId="69" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="98" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("LLD",C1)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="97" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",C1)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="98" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("LLD",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="67" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="115" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",C3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="116" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("LLD",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4 K8:K11">
-    <cfRule type="expression" dxfId="65" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="113" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("LLD",C3)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="111" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",C3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="112" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",C3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="113" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("LLD",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11 F8:F11 C1 D3:D8">
-    <cfRule type="expression" dxfId="62" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="96" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C7 G7">
-    <cfRule type="expression" dxfId="61" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="101" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("LLD",C4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="100" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",C4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="99" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",C4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="100" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",C4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="101" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("LLD",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 F8:F11">
-    <cfRule type="expression" dxfId="58" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="77" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("LLD",C8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="75" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",C8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="76" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",C8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="77" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("LLD",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="55" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="68" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",C8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="89" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("LLD",C8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="88" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",C8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="65" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",C8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="66" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",C8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="67" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("LLD",C8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="69" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",C8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="70" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("LLD",C8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="87" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",C8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="69" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",C8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="70" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("LLD",C8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="87" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",C8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="88" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",C8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="89" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("LLD",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="46" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="59" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",D11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="60" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",D11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="61" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("LLD",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:F18">
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="44" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",D18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="45" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",D18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("LLD",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H4">
-    <cfRule type="expression" dxfId="40" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="107" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("LLD",G3)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="106" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",G3)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="105" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",G3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="106" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",G3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="107" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("LLD",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="37" priority="117" operator="containsText" text="FIN CONTRAT">
+    <cfRule type="containsText" dxfId="21" priority="117" operator="containsText" text="FIN CONTRAT">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="118" operator="containsText" text="SANS CONTRAT">
+    <cfRule type="containsText" dxfId="20" priority="118" operator="containsText" text="SANS CONTRAT">
       <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="119" operator="containsText" text="LLD">
+    <cfRule type="containsText" dxfId="19" priority="119" operator="containsText" text="LLD">
       <formula>NOT(ISERROR(SEARCH("LLD",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J27">
-    <cfRule type="cellIs" dxfId="34" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="74" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3 K4:L4 L5:L7 K5:K8">
-    <cfRule type="expression" dxfId="33" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="84" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",K3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="85" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",K3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="86" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("LLD",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
-    <cfRule type="expression" dxfId="30" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="108" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",K3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="109" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",K3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="110" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("LLD",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="27" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="55" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("LLD",K13)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="54" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",K13)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="53" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",K13)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="54" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",K13)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="55" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("LLD",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K23">
-    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="37" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("LLD",K18)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="36" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",K18)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="35" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",K18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="36" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",K18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="37" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("LLD",K18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K27">
-    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="22" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("LLD",K26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",K26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="20" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",K26)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",K26)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("LLD",K26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:L25">
-    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="17" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("FIN CONTRAT",K25)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("LLD",K25)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("SANS CONTRAT",K25)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("LLD",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
